--- a/ingenuity files/Four clusters p-0.05/Lens fiber cell differentiation (7).xlsx
+++ b/ingenuity files/Four clusters p-0.05/Lens fiber cell differentiation (7).xlsx
@@ -60,43 +60,43 @@
     <t>LIM2</t>
   </si>
   <si>
+    <t>ANGPTL7</t>
+  </si>
+  <si>
+    <t>OPTC</t>
+  </si>
+  <si>
+    <t>KRT12</t>
+  </si>
+  <si>
+    <t>CRYGD</t>
+  </si>
+  <si>
+    <t>CRYAA</t>
+  </si>
+  <si>
+    <t>CRYGS</t>
+  </si>
+  <si>
+    <t>CRYBB2</t>
+  </si>
+  <si>
+    <t>UPK1B</t>
+  </si>
+  <si>
+    <t>APOD</t>
+  </si>
+  <si>
+    <t>CRYBA2</t>
+  </si>
+  <si>
+    <t>RARRES1</t>
+  </si>
+  <si>
     <t>ENSG00000258955</t>
   </si>
   <si>
-    <t>ANGPTL7</t>
-  </si>
-  <si>
     <t>C8orf47</t>
-  </si>
-  <si>
-    <t>OPTC</t>
-  </si>
-  <si>
-    <t>KRT12</t>
-  </si>
-  <si>
-    <t>CRYGD</t>
-  </si>
-  <si>
-    <t>CRYAA</t>
-  </si>
-  <si>
-    <t>CRYGS</t>
-  </si>
-  <si>
-    <t>CRYBB2</t>
-  </si>
-  <si>
-    <t>UPK1B</t>
-  </si>
-  <si>
-    <t>APOD</t>
-  </si>
-  <si>
-    <t>CRYBA2</t>
-  </si>
-  <si>
-    <t>RARRES1</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A26"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,67 +489,67 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
